--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptprz1-L1cam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptprz1-L1cam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>L1cam</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1030763333333333</v>
+        <v>0.06163433333333333</v>
       </c>
       <c r="H2">
-        <v>0.309229</v>
+        <v>0.184903</v>
       </c>
       <c r="I2">
-        <v>0.01126512502660735</v>
+        <v>0.006690894379667537</v>
       </c>
       <c r="J2">
-        <v>0.01126512502660735</v>
+        <v>0.006690894379667537</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="N2">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="O2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="P2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="Q2">
-        <v>2.328997107636444</v>
+        <v>0.4771131617289999</v>
       </c>
       <c r="R2">
-        <v>20.96097396872799</v>
+        <v>4.294018455561</v>
       </c>
       <c r="S2">
-        <v>0.008330581984517095</v>
+        <v>0.003298936731447178</v>
       </c>
       <c r="T2">
-        <v>0.008330581984517096</v>
+        <v>0.003298936731447178</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1030763333333333</v>
+        <v>0.06163433333333333</v>
       </c>
       <c r="H3">
-        <v>0.309229</v>
+        <v>0.184903</v>
       </c>
       <c r="I3">
-        <v>0.01126512502660735</v>
+        <v>0.006690894379667537</v>
       </c>
       <c r="J3">
-        <v>0.01126512502660735</v>
+        <v>0.006690894379667537</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="O3">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="P3">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="Q3">
-        <v>0.03139691369822222</v>
+        <v>0.01877373575422222</v>
       </c>
       <c r="R3">
-        <v>0.282572223284</v>
+        <v>0.168963621788</v>
       </c>
       <c r="S3">
-        <v>0.0001123035158636516</v>
+        <v>0.0001298085473929243</v>
       </c>
       <c r="T3">
-        <v>0.0001123035158636516</v>
+        <v>0.0001298085473929243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1030763333333333</v>
+        <v>0.06163433333333333</v>
       </c>
       <c r="H4">
-        <v>0.309229</v>
+        <v>0.184903</v>
       </c>
       <c r="I4">
-        <v>0.01126512502660735</v>
+        <v>0.006690894379667537</v>
       </c>
       <c r="J4">
-        <v>0.01126512502660735</v>
+        <v>0.006690894379667537</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="N4">
         <v>22.964118</v>
       </c>
       <c r="O4">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="P4">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="Q4">
-        <v>0.7890190272246667</v>
+        <v>0.4717927011726666</v>
       </c>
       <c r="R4">
-        <v>7.101171245021999</v>
+        <v>4.246134310554</v>
       </c>
       <c r="S4">
-        <v>0.002822239526226605</v>
+        <v>0.003262149100827436</v>
       </c>
       <c r="T4">
-        <v>0.002822239526226606</v>
+        <v>0.003262149100827436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.046962666666667</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="H5">
-        <v>27.140888</v>
+        <v>0.309229</v>
       </c>
       <c r="I5">
-        <v>0.9887348749733926</v>
+        <v>0.01118975126488057</v>
       </c>
       <c r="J5">
-        <v>0.9887348749733927</v>
+        <v>0.01118975126488057</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="N5">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="O5">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="P5">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="Q5">
-        <v>204.4150116925795</v>
+        <v>0.7979168855469999</v>
       </c>
       <c r="R5">
-        <v>1839.735105233216</v>
+        <v>7.181251969922999</v>
       </c>
       <c r="S5">
-        <v>0.7311713733724724</v>
+        <v>0.005517092240410805</v>
       </c>
       <c r="T5">
-        <v>0.7311713733724725</v>
+        <v>0.005517092240410805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.046962666666667</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="H6">
-        <v>27.140888</v>
+        <v>0.309229</v>
       </c>
       <c r="I6">
-        <v>0.9887348749733926</v>
+        <v>0.01118975126488057</v>
       </c>
       <c r="J6">
-        <v>0.9887348749733927</v>
+        <v>0.01118975126488057</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="O6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="P6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="Q6">
-        <v>2.755692765649778</v>
+        <v>0.03139691369822222</v>
       </c>
       <c r="R6">
-        <v>24.801234890848</v>
+        <v>0.282572223284</v>
       </c>
       <c r="S6">
-        <v>0.009856828260161861</v>
+        <v>0.0002170898649657745</v>
       </c>
       <c r="T6">
-        <v>0.009856828260161861</v>
+        <v>0.0002170898649657745</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,14 +829,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.046962666666667</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="H7">
-        <v>27.140888</v>
+        <v>0.309229</v>
       </c>
       <c r="I7">
-        <v>0.9887348749733926</v>
+        <v>0.01118975126488057</v>
       </c>
       <c r="J7">
-        <v>0.9887348749733927</v>
+        <v>0.01118975126488057</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="N7">
         <v>22.964118</v>
       </c>
       <c r="O7">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="P7">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="Q7">
+        <v>0.7890190272246667</v>
+      </c>
+      <c r="R7">
+        <v>7.101171245022</v>
+      </c>
+      <c r="S7">
+        <v>0.005455569159503994</v>
+      </c>
+      <c r="T7">
+        <v>0.005455569159503994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>9.046962666666667</v>
+      </c>
+      <c r="H8">
+        <v>27.140888</v>
+      </c>
+      <c r="I8">
+        <v>0.9821193543554519</v>
+      </c>
+      <c r="J8">
+        <v>0.9821193543554518</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.741029</v>
+      </c>
+      <c r="N8">
+        <v>23.223087</v>
+      </c>
+      <c r="O8">
+        <v>0.4930486933812723</v>
+      </c>
+      <c r="P8">
+        <v>0.4930486933812723</v>
+      </c>
+      <c r="Q8">
+        <v>70.03280036458401</v>
+      </c>
+      <c r="R8">
+        <v>630.295203281256</v>
+      </c>
+      <c r="S8">
+        <v>0.4842326644094143</v>
+      </c>
+      <c r="T8">
+        <v>0.4842326644094143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.046962666666667</v>
+      </c>
+      <c r="H9">
+        <v>27.140888</v>
+      </c>
+      <c r="I9">
+        <v>0.9821193543554519</v>
+      </c>
+      <c r="J9">
+        <v>0.9821193543554518</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3045986666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.9137960000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.0194007766416684</v>
+      </c>
+      <c r="P9">
+        <v>0.0194007766416684</v>
+      </c>
+      <c r="Q9">
+        <v>2.755692765649778</v>
+      </c>
+      <c r="R9">
+        <v>24.801234890848</v>
+      </c>
+      <c r="S9">
+        <v>0.0190538782293097</v>
+      </c>
+      <c r="T9">
+        <v>0.0190538782293097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.046962666666667</v>
+      </c>
+      <c r="H10">
+        <v>27.140888</v>
+      </c>
+      <c r="I10">
+        <v>0.9821193543554519</v>
+      </c>
+      <c r="J10">
+        <v>0.9821193543554518</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.654706000000001</v>
+      </c>
+      <c r="N10">
+        <v>22.964118</v>
+      </c>
+      <c r="O10">
+        <v>0.4875505299770593</v>
+      </c>
+      <c r="P10">
+        <v>0.4875505299770593</v>
+      </c>
+      <c r="Q10">
         <v>69.25183940630934</v>
       </c>
-      <c r="R7">
-        <v>623.266554656784</v>
-      </c>
-      <c r="S7">
-        <v>0.2477066733407584</v>
-      </c>
-      <c r="T7">
-        <v>0.2477066733407584</v>
+      <c r="R10">
+        <v>623.2665546567841</v>
+      </c>
+      <c r="S10">
+        <v>0.4788328117167279</v>
+      </c>
+      <c r="T10">
+        <v>0.4788328117167279</v>
       </c>
     </row>
   </sheetData>
